--- a/biology/Médecine/Muscle_coracobrachial/Muscle_coracobrachial.xlsx
+++ b/biology/Médecine/Muscle_coracobrachial/Muscle_coracobrachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle coraco-brachial (ou muscle coracobrachial ou muscle perforé de Casserius) est un muscle du bras[1] situé dans le plan profond[2] de la loge brachiale antérieure[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle coraco-brachial (ou muscle coracobrachial ou muscle perforé de Casserius) est un muscle du bras situé dans le plan profond de la loge brachiale antérieure.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle coraco-brachial s'insère en haut sur le processus coracoïde de la scapula juste en dedans du chef court du muscle biceps brachial.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle coraco-brachial est oblique en bas, en dehors et en arrière presque verticalement.
 </t>
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle coraco-brachial se termine sur la face interne de l'humérus, à sa jonction entre le tiers supérieur et les deux tiers inférieurs, juste au-dessus de l'insertion du muscle brachial et au même niveau que la tubérosité deltoïdienne.
 </t>
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle coraco-brachial est traversé par le nerf musculocutané qui lui laisse un rameau d'innervation.
 </t>
@@ -635,9 +655,11 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'irrigation du muscle coracobrachial se fait par l'artère brachiale[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'irrigation du muscle coracobrachial se fait par l'artère brachiale.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle coraco-brachial contribue à l'antépulsion du bras avec une légère adduction.
 </t>
@@ -697,7 +721,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La pathologie isolée du muscle coracobrachial est rare.
 </t>
